--- a/Monitor & Control/LHWA_RTM.xlsx
+++ b/Monitor & Control/LHWA_RTM.xlsx
@@ -178,10 +178,10 @@
     <t>UC_08</t>
   </si>
   <si>
-    <t>Middleware\RegisteredUserFunctions\Encyclopedia\UploadVideo.aspx</t>
+    <t>Front-End\Encyclopedia\Encyclopedia\Upload Video.aspx</t>
   </si>
   <si>
-    <t>Middleware\RegisteredUserFunctions\Encyclopedia\UploadVideo.aspx.cs</t>
+    <t>Middleware\Encyclopedia\Encyclopedia\Upload Video.aspx.cs</t>
   </si>
   <si>
     <t>SIQ_Q09,SIQ_Q11,SIQ_Q16</t>
@@ -199,10 +199,10 @@
     <t>UC_09</t>
   </si>
   <si>
-    <t>Middleware\RegisteredUserFunctions\Encyclopedia\UploadRecordedVoice.aspx</t>
+    <t>Front-End\Encyclopedia\Encyclopedia\Upload Record.aspx</t>
   </si>
   <si>
-    <t>Middleware\RegisteredUserFunctions\Encyclopedia\UploadRecordedVoice.aspx.cs</t>
+    <t>Middleware\Encyclopedia\Encyclopedia\Upload Record.aspx.cs</t>
   </si>
   <si>
     <t>SIQ_Q09,SIQ_Q14</t>
@@ -220,10 +220,10 @@
     <t>UC_05</t>
   </si>
   <si>
-    <t>Middleware\RegisteredUserFunctions\Encyclopedia\FollowSpecificCategory.aspx</t>
+    <t>Front-End\Encyclopedia\Encyclopedia\Space and Universe.aspx</t>
   </si>
   <si>
-    <t>Middleware\RegisteredUserFunctions\Encyclopedia\FollowSpecificCategory.aspx.cs</t>
+    <t>Middleware\Encyclopedia\Encyclopedia\Space and Universe.aspx.cs</t>
   </si>
   <si>
     <t>SIQ_Q09,SIQ_Q14,SIQ_Q15</t>
@@ -244,10 +244,10 @@
     <t>UC_06</t>
   </si>
   <si>
-    <t>Middleware\RegisteredUserFunctions\Encyclopedia\NotifyUser.aspx</t>
+    <t>Front-End\Encyclopedia\Encyclopedia\HomeE.aspx</t>
   </si>
   <si>
-    <t>Middleware\RegisteredUserFunctions\Encyclopedia\NotifyUser.aspx.cs</t>
+    <t>Front-End\Encyclopedia\Encyclopedia\HomeE.aspx.cs</t>
   </si>
   <si>
     <t>FR11_AUG</t>
